--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792833.873682319</v>
+        <v>1790946.292165917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531468.1222749326</v>
+        <v>604630.1919863819</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10694619.82863346</v>
+        <v>10694619.82863347</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>306.7837667286674</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>86.92043326537296</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.1944522398487</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>218.797736824674</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>35.18155893056283</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>174.0080053381487</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>142.6621898072149</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.3185979147718</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273983</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>122.1001444502225</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>58.73430469008298</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.951980975104</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>151.8401168727221</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>262.4553685891678</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>129.4106056624397</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>277.9755904211337</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.2787299119462</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.1395069808546</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>127.3497914400547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>238.5193143797256</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>20.08741433067725</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,7 +3004,7 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.8389180286439</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3235,7 +3235,7 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3247,13 +3247,13 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,10 +3800,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.173185892622</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.173185892622</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2102.110298549051</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482876</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>377.5443364482876</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>507.1211692320162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1304.217875522719</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>918.4296229244749</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>507.4437181348673</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>89.47991003305418</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340174</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D8" t="n">
-        <v>808.0839286340174</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E8" t="n">
-        <v>808.0839286340174</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F8" t="n">
-        <v>801.138427884814</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G8" t="n">
-        <v>383.1746197830008</v>
+        <v>525.2409238118514</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>198.0462038478543</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4899,31 +4899,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822451</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,10 +5063,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>836.471721275012</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N12" t="n">
-        <v>1501.327696442332</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2170.791457744991</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.434935358342</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.0220331715248</v>
+        <v>515.3536117832383</v>
       </c>
       <c r="C13" t="n">
-        <v>565.0858502436179</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>414.9692108312821</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>414.9692108312821</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>268.0792633333717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>268.0792633333717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150549</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150549</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715248</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>538.990041302063</v>
+        <v>572.0772607672147</v>
       </c>
       <c r="L15" t="n">
-        <v>768.9531471704122</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.288466700114</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706984</v>
+        <v>649.6418670412198</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706984</v>
+        <v>649.6418670412198</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706984</v>
+        <v>499.5252276288841</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>499.5252276288841</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>499.5252276288841</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5431,25 +5431,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1345.54241513091</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1345.54241513091</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1056.413776344468</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1056.413776344468</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1056.413776344468</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.413776344468</v>
+        <v>870.43444618475</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.6211972009381</v>
+        <v>649.6418670412198</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>436.8967109626376</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426789</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1010.024422429056</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>755.3399342231696</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>465.9227641862091</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X19" t="n">
-        <v>465.9227641862091</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426789</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,13 +5738,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,25 +5753,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1645.803509761998</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1645.803509761998</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028587</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706319</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>394.223678370532</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>244.9739985717188</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>370.3315586295562</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695368</v>
+        <v>370.3315586295562</v>
       </c>
       <c r="M24" t="n">
-        <v>1645.803509761998</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N24" t="n">
-        <v>1990.324165399617</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>726.2901516528284</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>1645.803509761998</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.803509761998</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.267271064658</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.7175987609742</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330673</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>857.3660635912139</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W28" t="n">
-        <v>857.3660635912139</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X28" t="n">
-        <v>857.3660635912139</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y28" t="n">
-        <v>857.3660635912139</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6540,16 +6540,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.1914993430014</v>
+        <v>600.4439501541574</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430014</v>
+        <v>487.2686325076212</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430014</v>
+        <v>392.9128583766563</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>300.760630075634</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864673</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>957.9946671386977</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>785.7659815220511</v>
       </c>
       <c r="Y31" t="n">
-        <v>577.0790988918702</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171745</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,13 +6883,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1931.863653619506</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,16 +7251,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,31 +7424,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.32563221405</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1288.32563221405</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1957.789393516709</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7725,13 +7725,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
         <v>1819.161927111988</v>
@@ -7795,19 +7795,19 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,10 +7828,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45.14667664840535</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>90.17952367745315</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>27.54158748827357</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.08069311088109</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>23.78198380940949</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>96.29904972659745</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>8.547407915457313</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644303</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.57014840818258</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>124.7878518837733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>48.00368395686536</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>104.5413092227029</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.54247869489373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967309</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935690.9158941216</v>
+        <v>935690.9158941215</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185699</v>
@@ -26323,28 +26323,28 @@
         <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143238</v>
+        <v>488186.5648143237</v>
       </c>
       <c r="L2" t="n">
         <v>492625.0619185702</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185703</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758629</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477243</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400031</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
         <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309385</v>
+        <v>-148797.7435569105</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459579</v>
+        <v>376362.2929199855</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459579</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.752045958</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.7520459578</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533649</v>
+        <v>199939.0737273928</v>
       </c>
       <c r="K6" t="n">
-        <v>328443.3347764829</v>
+        <v>328424.8410385484</v>
       </c>
       <c r="L6" t="n">
         <v>361360.4683657816</v>
       </c>
       <c r="M6" t="n">
-        <v>236902.3599328112</v>
+        <v>236902.3599328115</v>
       </c>
       <c r="N6" t="n">
-        <v>371703.3751666486</v>
+        <v>371703.3751666485</v>
       </c>
       <c r="O6" t="n">
         <v>371703.3751666484</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100.092279013044</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>129.5278870922848</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>3.115350019202168</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>33.33990649915395</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>288.7412138337943</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>149.9147674262084</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9.269126437646349</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>17.82694103524713</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.417204838987666e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31844,22 +31844,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>168.544577409839</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.7717287923908</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>151.6102905369469</v>
+        <v>185.0317243401304</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,16 +32315,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354459</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,25 +32549,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>210.8242018125564</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>149.9959924489173</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
@@ -32801,13 +32801,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>388.3797231237975</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.0697047810465</v>
@@ -33026,7 +33026,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,13 +33035,13 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>126.9320774728585</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33272,7 +33272,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,22 +33497,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>350.6961576959736</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,28 +34217,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>189.9305221518833</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,16 +34445,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813462</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>400.8305429334239</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.8672424422184</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>278.2340885751665</v>
+        <v>311.65552237835</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>343.1107267700523</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590309</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>462.0902766448415</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>149.2494011226595</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>639.6457979560826</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
@@ -36683,13 +36683,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>311.4204386984654</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,7 +36920,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>698.6968199561938</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,19 +37865,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>374.4188833774902</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415665</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
